--- a/fuentes/contenidos/grado11/guion09/SolicitudGraficaCN_11_09_REC280.xlsx
+++ b/fuentes/contenidos/grado11/guion09/SolicitudGraficaCN_11_09_REC280.xlsx
@@ -5,7 +5,7 @@
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LyzMarcela\Desktop\REC11_09\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LyzMarcela\Documents\GitHub\CienciasNaturales\fuentes\contenidos\grado11\guion09\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="hX79YNGfHMUCcosWMoH0GQuhNo2gkebFrfW3do2TOcvwqaujU9m0uwOL5UkRtWEspAy/ISD2JB8+jf057W9mVA==" workbookSaltValue="uRz/CDpmZ5ecKheoN1C0Jw==" workbookSpinCount="100000" lockStructure="1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="194">
   <si>
     <t>Fecha:</t>
   </si>
@@ -606,6 +606,9 @@
   </si>
   <si>
     <t>Realizar igual a imagen guía</t>
+  </si>
+  <si>
+    <t>Fotografía</t>
   </si>
 </sst>
 </file>
@@ -1751,7 +1754,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp4.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Drop" dropLines="16" dropStyle="combo" dx="33" fmlaLink="$K$44" fmlaRange="$K$4:$K$43" noThreeD="1" val="0"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Drop" dropLines="16" dropStyle="combo" dx="33" fmlaLink="$K$44" fmlaRange="$K$4:$K$43" noThreeD="1" sel="1" val="0"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp5.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1838,6 +1841,61 @@
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>695325</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>2690072</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>1551837</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 6" descr="http://thumb1.shutterstock.com/display_pic_with_logo/78354/185238530/stock-photo-hairdresser-salon-woman-during-hair-wash-185238530.jpg"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="14401800" y="6400800"/>
+          <a:ext cx="1994747" cy="1418487"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -2561,8 +2619,8 @@
   <dimension ref="A1:P108"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="G1" zoomScaleNormal="100" zoomScalePageLayoutView="140" workbookViewId="0">
-      <pane ySplit="9" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K11" sqref="K11"/>
+      <pane ySplit="9" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.875" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -2934,33 +2992,39 @@
         <v>M101</v>
       </c>
     </row>
-    <row r="12" spans="1:16" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" s="11" customFormat="1" ht="149.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="12" t="str">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="B12" s="62"/>
+        <v>IMG03</v>
+      </c>
+      <c r="B12" s="62">
+        <v>185238530</v>
+      </c>
       <c r="C12" s="20" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="D12" s="63"/>
-      <c r="E12" s="63"/>
+        <v>Recurso F13</v>
+      </c>
+      <c r="D12" s="63" t="s">
+        <v>193</v>
+      </c>
+      <c r="E12" s="63" t="s">
+        <v>151</v>
+      </c>
       <c r="F12" s="13" t="str">
-        <f t="shared" si="4"/>
-        <v/>
+        <f t="shared" ca="1" si="4"/>
+        <v>CN_11_09_REC280_IMG03n.jpg</v>
       </c>
       <c r="G12" s="13" t="str">
         <f ca="1">IF($F12&lt;&gt;"",IF($G$4="Recurso",VLOOKUP($E12,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),5),5,FALSE),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v/>
+        <v>240 x 375 px</v>
       </c>
       <c r="H12" s="13" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v/>
+        <v>CN_11_09_REC280_IMG03a.jpg</v>
       </c>
       <c r="I12" s="13" t="str">
         <f ca="1">IF(OR($B12&lt;&gt;"",$J12&lt;&gt;""),IF($G$4="Recurso",IF(VLOOKUP($E12,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)=0,"",VLOOKUP($E12,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)),'Definición técnica de imagenes'!$G$16),"")</f>
-        <v/>
+        <v>800 x 460 px</v>
       </c>
       <c r="J12" s="64"/>
       <c r="K12" s="64"/>
